--- a/data/output/FV2404_FV2310/UTILMD/55116.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55116.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10904" uniqueCount="691">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10925" uniqueCount="691">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -2269,6 +2269,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U553" totalsRowShown="0">
+  <autoFilter ref="A1:U553"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2558,7 +2588,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U553"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -27156,5 +27189,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/UTILMD/55116.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55116.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13110" uniqueCount="1235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13044" uniqueCount="1235">
   <si>
     <t>#</t>
   </si>
@@ -18170,44 +18170,42 @@
       <c r="V286" s="11"/>
     </row>
     <row r="287" spans="1:22">
-      <c r="A287" s="2" t="s">
+      <c r="A287" s="5" t="s">
         <v>970</v>
       </c>
-      <c r="B287" s="2" t="s">
+      <c r="B287" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C287" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D287" s="2"/>
-      <c r="E287" s="2"/>
-      <c r="F287" s="2"/>
-      <c r="G287" s="2"/>
-      <c r="H287" s="2"/>
-      <c r="I287" s="2"/>
-      <c r="J287" s="2" t="s">
+      <c r="C287" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D287" s="5"/>
+      <c r="E287" s="5"/>
+      <c r="F287" s="5"/>
+      <c r="G287" s="5"/>
+      <c r="H287" s="5"/>
+      <c r="I287" s="5"/>
+      <c r="J287" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="K287" s="2"/>
-      <c r="L287" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="M287" s="2" t="s">
+      <c r="K287" s="5"/>
+      <c r="L287" s="7"/>
+      <c r="M287" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="N287" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O287" s="2"/>
-      <c r="P287" s="2"/>
-      <c r="Q287" s="2"/>
-      <c r="R287" s="2"/>
-      <c r="S287" s="2"/>
-      <c r="T287" s="2"/>
-      <c r="U287" s="2" t="s">
+      <c r="N287" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O287" s="5"/>
+      <c r="P287" s="5"/>
+      <c r="Q287" s="5"/>
+      <c r="R287" s="5"/>
+      <c r="S287" s="5"/>
+      <c r="T287" s="5"/>
+      <c r="U287" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="V287" s="2"/>
+      <c r="V287" s="5"/>
     </row>
     <row r="288" spans="1:22">
       <c r="A288" s="2" t="s">
@@ -18341,9 +18339,7 @@
         <v>430</v>
       </c>
       <c r="K290" s="2"/>
-      <c r="L290" s="4" t="s">
-        <v>552</v>
-      </c>
+      <c r="L290" s="7"/>
       <c r="M290" s="2" t="s">
         <v>51</v>
       </c>
@@ -24380,46 +24376,44 @@
       <c r="V422" s="2"/>
     </row>
     <row r="423" spans="1:22">
-      <c r="A423" s="2" t="s">
+      <c r="A423" s="5" t="s">
         <v>1104</v>
       </c>
-      <c r="B423" s="2" t="s">
+      <c r="B423" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C423" s="2" t="s">
+      <c r="C423" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D423" s="2"/>
-      <c r="E423" s="2"/>
-      <c r="F423" s="2"/>
-      <c r="G423" s="2"/>
-      <c r="H423" s="2"/>
-      <c r="I423" s="2"/>
-      <c r="J423" s="2" t="s">
+      <c r="D423" s="5"/>
+      <c r="E423" s="5"/>
+      <c r="F423" s="5"/>
+      <c r="G423" s="5"/>
+      <c r="H423" s="5"/>
+      <c r="I423" s="5"/>
+      <c r="J423" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="K423" s="2" t="s">
+      <c r="K423" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="L423" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="M423" s="2" t="s">
+      <c r="L423" s="7"/>
+      <c r="M423" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="N423" s="2" t="s">
+      <c r="N423" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="O423" s="2"/>
-      <c r="P423" s="2"/>
-      <c r="Q423" s="2"/>
-      <c r="R423" s="2"/>
-      <c r="S423" s="2"/>
-      <c r="T423" s="2"/>
-      <c r="U423" s="2" t="s">
+      <c r="O423" s="5"/>
+      <c r="P423" s="5"/>
+      <c r="Q423" s="5"/>
+      <c r="R423" s="5"/>
+      <c r="S423" s="5"/>
+      <c r="T423" s="5"/>
+      <c r="U423" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="V423" s="2" t="s">
+      <c r="V423" s="5" t="s">
         <v>534</v>
       </c>
     </row>
@@ -24665,9 +24659,7 @@
       <c r="K428" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="L428" s="4" t="s">
-        <v>552</v>
-      </c>
+      <c r="L428" s="7"/>
       <c r="M428" s="2" t="s">
         <v>86</v>
       </c>
@@ -25460,46 +25452,44 @@
       <c r="V442" s="2"/>
     </row>
     <row r="443" spans="1:22">
-      <c r="A443" s="2" t="s">
+      <c r="A443" s="5" t="s">
         <v>1124</v>
       </c>
-      <c r="B443" s="2" t="s">
+      <c r="B443" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C443" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D443" s="2"/>
-      <c r="E443" s="2"/>
-      <c r="F443" s="2"/>
-      <c r="G443" s="2"/>
-      <c r="H443" s="2"/>
-      <c r="I443" s="2"/>
-      <c r="J443" s="2" t="s">
+      <c r="C443" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D443" s="5"/>
+      <c r="E443" s="5"/>
+      <c r="F443" s="5"/>
+      <c r="G443" s="5"/>
+      <c r="H443" s="5"/>
+      <c r="I443" s="5"/>
+      <c r="J443" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="K443" s="2" t="s">
+      <c r="K443" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="L443" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="M443" s="2" t="s">
+      <c r="L443" s="7"/>
+      <c r="M443" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N443" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O443" s="2"/>
-      <c r="P443" s="2"/>
-      <c r="Q443" s="2"/>
-      <c r="R443" s="2"/>
-      <c r="S443" s="2"/>
-      <c r="T443" s="2"/>
-      <c r="U443" s="2" t="s">
+      <c r="N443" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O443" s="5"/>
+      <c r="P443" s="5"/>
+      <c r="Q443" s="5"/>
+      <c r="R443" s="5"/>
+      <c r="S443" s="5"/>
+      <c r="T443" s="5"/>
+      <c r="U443" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="V443" s="2" t="s">
+      <c r="V443" s="5" t="s">
         <v>540</v>
       </c>
     </row>
@@ -25739,9 +25729,7 @@
         <v>427</v>
       </c>
       <c r="K448" s="2"/>
-      <c r="L448" s="4" t="s">
-        <v>552</v>
-      </c>
+      <c r="L448" s="7"/>
       <c r="M448" s="2" t="s">
         <v>57</v>
       </c>
@@ -25795,9 +25783,7 @@
         <v>427</v>
       </c>
       <c r="K449" s="2"/>
-      <c r="L449" s="4" t="s">
-        <v>552</v>
-      </c>
+      <c r="L449" s="7"/>
       <c r="M449" s="2" t="s">
         <v>57</v>
       </c>
@@ -25851,9 +25837,7 @@
         <v>427</v>
       </c>
       <c r="K450" s="2"/>
-      <c r="L450" s="4" t="s">
-        <v>552</v>
-      </c>
+      <c r="L450" s="7"/>
       <c r="M450" s="2" t="s">
         <v>57</v>
       </c>
@@ -25880,46 +25864,44 @@
       <c r="V450" s="2"/>
     </row>
     <row r="451" spans="1:22">
-      <c r="A451" s="2" t="s">
+      <c r="A451" s="5" t="s">
         <v>1132</v>
       </c>
-      <c r="B451" s="2" t="s">
+      <c r="B451" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C451" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D451" s="2"/>
-      <c r="E451" s="2"/>
-      <c r="F451" s="2"/>
-      <c r="G451" s="2"/>
-      <c r="H451" s="2"/>
-      <c r="I451" s="2"/>
-      <c r="J451" s="2" t="s">
+      <c r="C451" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D451" s="5"/>
+      <c r="E451" s="5"/>
+      <c r="F451" s="5"/>
+      <c r="G451" s="5"/>
+      <c r="H451" s="5"/>
+      <c r="I451" s="5"/>
+      <c r="J451" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="K451" s="2" t="s">
+      <c r="K451" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="L451" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="M451" s="2" t="s">
+      <c r="L451" s="7"/>
+      <c r="M451" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N451" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O451" s="2"/>
-      <c r="P451" s="2"/>
-      <c r="Q451" s="2"/>
-      <c r="R451" s="2"/>
-      <c r="S451" s="2"/>
-      <c r="T451" s="2"/>
-      <c r="U451" s="2" t="s">
+      <c r="N451" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O451" s="5"/>
+      <c r="P451" s="5"/>
+      <c r="Q451" s="5"/>
+      <c r="R451" s="5"/>
+      <c r="S451" s="5"/>
+      <c r="T451" s="5"/>
+      <c r="U451" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="V451" s="2" t="s">
+      <c r="V451" s="5" t="s">
         <v>541</v>
       </c>
     </row>
@@ -26082,46 +26064,44 @@
       <c r="V454" s="2"/>
     </row>
     <row r="455" spans="1:22">
-      <c r="A455" s="2" t="s">
+      <c r="A455" s="5" t="s">
         <v>1136</v>
       </c>
-      <c r="B455" s="2" t="s">
+      <c r="B455" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C455" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D455" s="2"/>
-      <c r="E455" s="2"/>
-      <c r="F455" s="2"/>
-      <c r="G455" s="2"/>
-      <c r="H455" s="2"/>
-      <c r="I455" s="2"/>
-      <c r="J455" s="2" t="s">
+      <c r="C455" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D455" s="5"/>
+      <c r="E455" s="5"/>
+      <c r="F455" s="5"/>
+      <c r="G455" s="5"/>
+      <c r="H455" s="5"/>
+      <c r="I455" s="5"/>
+      <c r="J455" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="K455" s="2" t="s">
+      <c r="K455" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="L455" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="M455" s="2" t="s">
+      <c r="L455" s="7"/>
+      <c r="M455" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="N455" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O455" s="2"/>
-      <c r="P455" s="2"/>
-      <c r="Q455" s="2"/>
-      <c r="R455" s="2"/>
-      <c r="S455" s="2"/>
-      <c r="T455" s="2"/>
-      <c r="U455" s="2" t="s">
+      <c r="N455" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O455" s="5"/>
+      <c r="P455" s="5"/>
+      <c r="Q455" s="5"/>
+      <c r="R455" s="5"/>
+      <c r="S455" s="5"/>
+      <c r="T455" s="5"/>
+      <c r="U455" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="V455" s="2" t="s">
+      <c r="V455" s="5" t="s">
         <v>521</v>
       </c>
     </row>
@@ -26284,46 +26264,44 @@
       <c r="V458" s="2"/>
     </row>
     <row r="459" spans="1:22">
-      <c r="A459" s="2" t="s">
+      <c r="A459" s="5" t="s">
         <v>1140</v>
       </c>
-      <c r="B459" s="2" t="s">
+      <c r="B459" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C459" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D459" s="2"/>
-      <c r="E459" s="2"/>
-      <c r="F459" s="2"/>
-      <c r="G459" s="2"/>
-      <c r="H459" s="2"/>
-      <c r="I459" s="2"/>
-      <c r="J459" s="2" t="s">
+      <c r="C459" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D459" s="5"/>
+      <c r="E459" s="5"/>
+      <c r="F459" s="5"/>
+      <c r="G459" s="5"/>
+      <c r="H459" s="5"/>
+      <c r="I459" s="5"/>
+      <c r="J459" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="K459" s="2" t="s">
+      <c r="K459" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="L459" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="M459" s="2" t="s">
+      <c r="L459" s="7"/>
+      <c r="M459" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="N459" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O459" s="2"/>
-      <c r="P459" s="2"/>
-      <c r="Q459" s="2"/>
-      <c r="R459" s="2"/>
-      <c r="S459" s="2"/>
-      <c r="T459" s="2"/>
-      <c r="U459" s="2" t="s">
+      <c r="N459" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O459" s="5"/>
+      <c r="P459" s="5"/>
+      <c r="Q459" s="5"/>
+      <c r="R459" s="5"/>
+      <c r="S459" s="5"/>
+      <c r="T459" s="5"/>
+      <c r="U459" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="V459" s="2" t="s">
+      <c r="V459" s="5" t="s">
         <v>542</v>
       </c>
     </row>
@@ -26644,46 +26622,44 @@
       <c r="V465" s="2"/>
     </row>
     <row r="466" spans="1:22">
-      <c r="A466" s="2" t="s">
+      <c r="A466" s="5" t="s">
         <v>1147</v>
       </c>
-      <c r="B466" s="2" t="s">
+      <c r="B466" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C466" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D466" s="2"/>
-      <c r="E466" s="2"/>
-      <c r="F466" s="2"/>
-      <c r="G466" s="2"/>
-      <c r="H466" s="2"/>
-      <c r="I466" s="2"/>
-      <c r="J466" s="2" t="s">
+      <c r="C466" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D466" s="5"/>
+      <c r="E466" s="5"/>
+      <c r="F466" s="5"/>
+      <c r="G466" s="5"/>
+      <c r="H466" s="5"/>
+      <c r="I466" s="5"/>
+      <c r="J466" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="K466" s="2" t="s">
+      <c r="K466" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="L466" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="M466" s="2" t="s">
+      <c r="L466" s="7"/>
+      <c r="M466" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="N466" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O466" s="2"/>
-      <c r="P466" s="2"/>
-      <c r="Q466" s="2"/>
-      <c r="R466" s="2"/>
-      <c r="S466" s="2"/>
-      <c r="T466" s="2"/>
-      <c r="U466" s="2" t="s">
+      <c r="N466" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O466" s="5"/>
+      <c r="P466" s="5"/>
+      <c r="Q466" s="5"/>
+      <c r="R466" s="5"/>
+      <c r="S466" s="5"/>
+      <c r="T466" s="5"/>
+      <c r="U466" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="V466" s="2" t="s">
+      <c r="V466" s="5" t="s">
         <v>543</v>
       </c>
     </row>
@@ -26846,46 +26822,44 @@
       <c r="V469" s="2"/>
     </row>
     <row r="470" spans="1:22">
-      <c r="A470" s="2" t="s">
+      <c r="A470" s="5" t="s">
         <v>1151</v>
       </c>
-      <c r="B470" s="2" t="s">
+      <c r="B470" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C470" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D470" s="2"/>
-      <c r="E470" s="2"/>
-      <c r="F470" s="2"/>
-      <c r="G470" s="2"/>
-      <c r="H470" s="2"/>
-      <c r="I470" s="2"/>
-      <c r="J470" s="2" t="s">
+      <c r="C470" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D470" s="5"/>
+      <c r="E470" s="5"/>
+      <c r="F470" s="5"/>
+      <c r="G470" s="5"/>
+      <c r="H470" s="5"/>
+      <c r="I470" s="5"/>
+      <c r="J470" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="K470" s="2" t="s">
+      <c r="K470" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="L470" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="M470" s="2" t="s">
+      <c r="L470" s="7"/>
+      <c r="M470" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="N470" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O470" s="2"/>
-      <c r="P470" s="2"/>
-      <c r="Q470" s="2"/>
-      <c r="R470" s="2"/>
-      <c r="S470" s="2"/>
-      <c r="T470" s="2"/>
-      <c r="U470" s="2" t="s">
+      <c r="N470" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O470" s="5"/>
+      <c r="P470" s="5"/>
+      <c r="Q470" s="5"/>
+      <c r="R470" s="5"/>
+      <c r="S470" s="5"/>
+      <c r="T470" s="5"/>
+      <c r="U470" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="V470" s="2" t="s">
+      <c r="V470" s="5" t="s">
         <v>544</v>
       </c>
     </row>
@@ -27079,9 +27053,7 @@
         <v>427</v>
       </c>
       <c r="K474" s="2"/>
-      <c r="L474" s="4" t="s">
-        <v>552</v>
-      </c>
+      <c r="L474" s="7"/>
       <c r="M474" s="2" t="s">
         <v>93</v>
       </c>
@@ -27108,46 +27080,44 @@
       <c r="V474" s="2"/>
     </row>
     <row r="475" spans="1:22">
-      <c r="A475" s="2" t="s">
+      <c r="A475" s="5" t="s">
         <v>1156</v>
       </c>
-      <c r="B475" s="2" t="s">
+      <c r="B475" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C475" s="2" t="s">
+      <c r="C475" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D475" s="2"/>
-      <c r="E475" s="2"/>
-      <c r="F475" s="2"/>
-      <c r="G475" s="2"/>
-      <c r="H475" s="2"/>
-      <c r="I475" s="2"/>
-      <c r="J475" s="2" t="s">
+      <c r="D475" s="5"/>
+      <c r="E475" s="5"/>
+      <c r="F475" s="5"/>
+      <c r="G475" s="5"/>
+      <c r="H475" s="5"/>
+      <c r="I475" s="5"/>
+      <c r="J475" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="K475" s="2" t="s">
+      <c r="K475" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="L475" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="M475" s="2" t="s">
+      <c r="L475" s="7"/>
+      <c r="M475" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="N475" s="2" t="s">
+      <c r="N475" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="O475" s="2"/>
-      <c r="P475" s="2"/>
-      <c r="Q475" s="2"/>
-      <c r="R475" s="2"/>
-      <c r="S475" s="2"/>
-      <c r="T475" s="2"/>
-      <c r="U475" s="2" t="s">
+      <c r="O475" s="5"/>
+      <c r="P475" s="5"/>
+      <c r="Q475" s="5"/>
+      <c r="R475" s="5"/>
+      <c r="S475" s="5"/>
+      <c r="T475" s="5"/>
+      <c r="U475" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="V475" s="2" t="s">
+      <c r="V475" s="5" t="s">
         <v>545</v>
       </c>
     </row>
@@ -27414,44 +27384,42 @@
       <c r="V480" s="2"/>
     </row>
     <row r="481" spans="1:22">
-      <c r="A481" s="2" t="s">
+      <c r="A481" s="5" t="s">
         <v>1162</v>
       </c>
-      <c r="B481" s="2" t="s">
+      <c r="B481" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C481" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D481" s="2"/>
-      <c r="E481" s="2"/>
-      <c r="F481" s="2"/>
-      <c r="G481" s="2"/>
-      <c r="H481" s="2"/>
-      <c r="I481" s="2"/>
-      <c r="J481" s="2" t="s">
+      <c r="C481" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D481" s="5"/>
+      <c r="E481" s="5"/>
+      <c r="F481" s="5"/>
+      <c r="G481" s="5"/>
+      <c r="H481" s="5"/>
+      <c r="I481" s="5"/>
+      <c r="J481" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="K481" s="2"/>
-      <c r="L481" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="M481" s="2" t="s">
+      <c r="K481" s="5"/>
+      <c r="L481" s="7"/>
+      <c r="M481" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="N481" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O481" s="2"/>
-      <c r="P481" s="2"/>
-      <c r="Q481" s="2"/>
-      <c r="R481" s="2"/>
-      <c r="S481" s="2"/>
-      <c r="T481" s="2"/>
-      <c r="U481" s="2" t="s">
+      <c r="N481" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O481" s="5"/>
+      <c r="P481" s="5"/>
+      <c r="Q481" s="5"/>
+      <c r="R481" s="5"/>
+      <c r="S481" s="5"/>
+      <c r="T481" s="5"/>
+      <c r="U481" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="V481" s="2"/>
+      <c r="V481" s="5"/>
     </row>
     <row r="482" spans="1:22">
       <c r="A482" s="2" t="s">
@@ -27851,9 +27819,7 @@
         <v>427</v>
       </c>
       <c r="K489" s="2"/>
-      <c r="L489" s="4" t="s">
-        <v>552</v>
-      </c>
+      <c r="L489" s="7"/>
       <c r="M489" s="2" t="s">
         <v>96</v>
       </c>
@@ -27907,9 +27873,7 @@
         <v>427</v>
       </c>
       <c r="K490" s="2"/>
-      <c r="L490" s="4" t="s">
-        <v>552</v>
-      </c>
+      <c r="L490" s="7"/>
       <c r="M490" s="2" t="s">
         <v>96</v>
       </c>
@@ -27963,9 +27927,7 @@
         <v>427</v>
       </c>
       <c r="K491" s="2"/>
-      <c r="L491" s="4" t="s">
-        <v>552</v>
-      </c>
+      <c r="L491" s="7"/>
       <c r="M491" s="2" t="s">
         <v>96</v>
       </c>
@@ -28050,46 +28012,44 @@
       </c>
     </row>
     <row r="493" spans="1:22">
-      <c r="A493" s="2" t="s">
+      <c r="A493" s="5" t="s">
         <v>1174</v>
       </c>
-      <c r="B493" s="2" t="s">
+      <c r="B493" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C493" s="2" t="s">
+      <c r="C493" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D493" s="2"/>
-      <c r="E493" s="2"/>
-      <c r="F493" s="2"/>
-      <c r="G493" s="2"/>
-      <c r="H493" s="2"/>
-      <c r="I493" s="2"/>
-      <c r="J493" s="2" t="s">
+      <c r="D493" s="5"/>
+      <c r="E493" s="5"/>
+      <c r="F493" s="5"/>
+      <c r="G493" s="5"/>
+      <c r="H493" s="5"/>
+      <c r="I493" s="5"/>
+      <c r="J493" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="K493" s="2" t="s">
+      <c r="K493" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="L493" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="M493" s="2" t="s">
+      <c r="L493" s="7"/>
+      <c r="M493" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="N493" s="2" t="s">
+      <c r="N493" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="O493" s="2"/>
-      <c r="P493" s="2"/>
-      <c r="Q493" s="2"/>
-      <c r="R493" s="2"/>
-      <c r="S493" s="2"/>
-      <c r="T493" s="2"/>
-      <c r="U493" s="2" t="s">
+      <c r="O493" s="5"/>
+      <c r="P493" s="5"/>
+      <c r="Q493" s="5"/>
+      <c r="R493" s="5"/>
+      <c r="S493" s="5"/>
+      <c r="T493" s="5"/>
+      <c r="U493" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="V493" s="2" t="s">
+      <c r="V493" s="5" t="s">
         <v>548</v>
       </c>
     </row>
@@ -28356,44 +28316,42 @@
       <c r="V498" s="2"/>
     </row>
     <row r="499" spans="1:22">
-      <c r="A499" s="2" t="s">
+      <c r="A499" s="5" t="s">
         <v>1180</v>
       </c>
-      <c r="B499" s="2" t="s">
+      <c r="B499" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C499" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D499" s="2"/>
-      <c r="E499" s="2"/>
-      <c r="F499" s="2"/>
-      <c r="G499" s="2"/>
-      <c r="H499" s="2"/>
-      <c r="I499" s="2"/>
-      <c r="J499" s="2" t="s">
+      <c r="C499" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D499" s="5"/>
+      <c r="E499" s="5"/>
+      <c r="F499" s="5"/>
+      <c r="G499" s="5"/>
+      <c r="H499" s="5"/>
+      <c r="I499" s="5"/>
+      <c r="J499" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="K499" s="2"/>
-      <c r="L499" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="M499" s="2" t="s">
+      <c r="K499" s="5"/>
+      <c r="L499" s="7"/>
+      <c r="M499" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="N499" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O499" s="2"/>
-      <c r="P499" s="2"/>
-      <c r="Q499" s="2"/>
-      <c r="R499" s="2"/>
-      <c r="S499" s="2"/>
-      <c r="T499" s="2"/>
-      <c r="U499" s="2" t="s">
+      <c r="N499" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O499" s="5"/>
+      <c r="P499" s="5"/>
+      <c r="Q499" s="5"/>
+      <c r="R499" s="5"/>
+      <c r="S499" s="5"/>
+      <c r="T499" s="5"/>
+      <c r="U499" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="V499" s="2"/>
+      <c r="V499" s="5"/>
     </row>
     <row r="500" spans="1:22">
       <c r="A500" s="2" t="s">
@@ -28789,9 +28747,7 @@
         <v>427</v>
       </c>
       <c r="K507" s="2"/>
-      <c r="L507" s="4" t="s">
-        <v>552</v>
-      </c>
+      <c r="L507" s="7"/>
       <c r="M507" s="2" t="s">
         <v>99</v>
       </c>
@@ -28845,9 +28801,7 @@
         <v>427</v>
       </c>
       <c r="K508" s="2"/>
-      <c r="L508" s="4" t="s">
-        <v>552</v>
-      </c>
+      <c r="L508" s="7"/>
       <c r="M508" s="2" t="s">
         <v>99</v>
       </c>
@@ -28901,9 +28855,7 @@
         <v>427</v>
       </c>
       <c r="K509" s="2"/>
-      <c r="L509" s="4" t="s">
-        <v>552</v>
-      </c>
+      <c r="L509" s="7"/>
       <c r="M509" s="2" t="s">
         <v>99</v>
       </c>
@@ -28957,9 +28909,7 @@
         <v>427</v>
       </c>
       <c r="K510" s="2"/>
-      <c r="L510" s="4" t="s">
-        <v>552</v>
-      </c>
+      <c r="L510" s="7"/>
       <c r="M510" s="2" t="s">
         <v>99</v>
       </c>
@@ -29013,9 +28963,7 @@
         <v>427</v>
       </c>
       <c r="K511" s="2"/>
-      <c r="L511" s="4" t="s">
-        <v>552</v>
-      </c>
+      <c r="L511" s="7"/>
       <c r="M511" s="2" t="s">
         <v>99</v>
       </c>
@@ -29042,46 +28990,44 @@
       <c r="V511" s="2"/>
     </row>
     <row r="512" spans="1:22">
-      <c r="A512" s="2" t="s">
+      <c r="A512" s="5" t="s">
         <v>1193</v>
       </c>
-      <c r="B512" s="2" t="s">
+      <c r="B512" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C512" s="2" t="s">
+      <c r="C512" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D512" s="2"/>
-      <c r="E512" s="2"/>
-      <c r="F512" s="2"/>
-      <c r="G512" s="2"/>
-      <c r="H512" s="2"/>
-      <c r="I512" s="2"/>
-      <c r="J512" s="2" t="s">
+      <c r="D512" s="5"/>
+      <c r="E512" s="5"/>
+      <c r="F512" s="5"/>
+      <c r="G512" s="5"/>
+      <c r="H512" s="5"/>
+      <c r="I512" s="5"/>
+      <c r="J512" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="K512" s="2" t="s">
+      <c r="K512" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="L512" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="M512" s="2" t="s">
+      <c r="L512" s="7"/>
+      <c r="M512" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="N512" s="2" t="s">
+      <c r="N512" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="O512" s="2"/>
-      <c r="P512" s="2"/>
-      <c r="Q512" s="2"/>
-      <c r="R512" s="2"/>
-      <c r="S512" s="2"/>
-      <c r="T512" s="2"/>
-      <c r="U512" s="2" t="s">
+      <c r="O512" s="5"/>
+      <c r="P512" s="5"/>
+      <c r="Q512" s="5"/>
+      <c r="R512" s="5"/>
+      <c r="S512" s="5"/>
+      <c r="T512" s="5"/>
+      <c r="U512" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="V512" s="2" t="s">
+      <c r="V512" s="5" t="s">
         <v>545</v>
       </c>
     </row>
@@ -29348,44 +29294,42 @@
       <c r="V517" s="2"/>
     </row>
     <row r="518" spans="1:22">
-      <c r="A518" s="2" t="s">
+      <c r="A518" s="5" t="s">
         <v>1199</v>
       </c>
-      <c r="B518" s="2" t="s">
+      <c r="B518" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C518" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D518" s="2"/>
-      <c r="E518" s="2"/>
-      <c r="F518" s="2"/>
-      <c r="G518" s="2"/>
-      <c r="H518" s="2"/>
-      <c r="I518" s="2"/>
-      <c r="J518" s="2" t="s">
+      <c r="C518" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D518" s="5"/>
+      <c r="E518" s="5"/>
+      <c r="F518" s="5"/>
+      <c r="G518" s="5"/>
+      <c r="H518" s="5"/>
+      <c r="I518" s="5"/>
+      <c r="J518" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="K518" s="2"/>
-      <c r="L518" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="M518" s="2" t="s">
+      <c r="K518" s="5"/>
+      <c r="L518" s="7"/>
+      <c r="M518" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="N518" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O518" s="2"/>
-      <c r="P518" s="2"/>
-      <c r="Q518" s="2"/>
-      <c r="R518" s="2"/>
-      <c r="S518" s="2"/>
-      <c r="T518" s="2"/>
-      <c r="U518" s="2" t="s">
+      <c r="N518" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O518" s="5"/>
+      <c r="P518" s="5"/>
+      <c r="Q518" s="5"/>
+      <c r="R518" s="5"/>
+      <c r="S518" s="5"/>
+      <c r="T518" s="5"/>
+      <c r="U518" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="V518" s="2"/>
+      <c r="V518" s="5"/>
     </row>
     <row r="519" spans="1:22">
       <c r="A519" s="2" t="s">
@@ -29781,9 +29725,7 @@
         <v>427</v>
       </c>
       <c r="K526" s="2"/>
-      <c r="L526" s="4" t="s">
-        <v>552</v>
-      </c>
+      <c r="L526" s="7"/>
       <c r="M526" s="2" t="s">
         <v>102</v>
       </c>
@@ -29810,46 +29752,44 @@
       <c r="V526" s="2"/>
     </row>
     <row r="527" spans="1:22">
-      <c r="A527" s="2" t="s">
+      <c r="A527" s="5" t="s">
         <v>1208</v>
       </c>
-      <c r="B527" s="2" t="s">
+      <c r="B527" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C527" s="2" t="s">
+      <c r="C527" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D527" s="2"/>
-      <c r="E527" s="2"/>
-      <c r="F527" s="2"/>
-      <c r="G527" s="2"/>
-      <c r="H527" s="2"/>
-      <c r="I527" s="2"/>
-      <c r="J527" s="2" t="s">
+      <c r="D527" s="5"/>
+      <c r="E527" s="5"/>
+      <c r="F527" s="5"/>
+      <c r="G527" s="5"/>
+      <c r="H527" s="5"/>
+      <c r="I527" s="5"/>
+      <c r="J527" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="K527" s="2" t="s">
+      <c r="K527" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="L527" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="M527" s="2" t="s">
+      <c r="L527" s="7"/>
+      <c r="M527" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="N527" s="2" t="s">
+      <c r="N527" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="O527" s="2"/>
-      <c r="P527" s="2"/>
-      <c r="Q527" s="2"/>
-      <c r="R527" s="2"/>
-      <c r="S527" s="2"/>
-      <c r="T527" s="2"/>
-      <c r="U527" s="2" t="s">
+      <c r="O527" s="5"/>
+      <c r="P527" s="5"/>
+      <c r="Q527" s="5"/>
+      <c r="R527" s="5"/>
+      <c r="S527" s="5"/>
+      <c r="T527" s="5"/>
+      <c r="U527" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="V527" s="2" t="s">
+      <c r="V527" s="5" t="s">
         <v>549</v>
       </c>
     </row>
@@ -29977,9 +29917,7 @@
         <v>426</v>
       </c>
       <c r="K530" s="2"/>
-      <c r="L530" s="4" t="s">
-        <v>552</v>
-      </c>
+      <c r="L530" s="7"/>
       <c r="M530" s="2" t="s">
         <v>103</v>
       </c>
@@ -30264,46 +30202,44 @@
       </c>
     </row>
     <row r="536" spans="1:22">
-      <c r="A536" s="2" t="s">
+      <c r="A536" s="5" t="s">
         <v>1217</v>
       </c>
-      <c r="B536" s="2" t="s">
+      <c r="B536" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C536" s="2" t="s">
+      <c r="C536" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D536" s="2"/>
-      <c r="E536" s="2"/>
-      <c r="F536" s="2"/>
-      <c r="G536" s="2"/>
-      <c r="H536" s="2"/>
-      <c r="I536" s="2"/>
-      <c r="J536" s="2" t="s">
+      <c r="D536" s="5"/>
+      <c r="E536" s="5"/>
+      <c r="F536" s="5"/>
+      <c r="G536" s="5"/>
+      <c r="H536" s="5"/>
+      <c r="I536" s="5"/>
+      <c r="J536" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="K536" s="2" t="s">
+      <c r="K536" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="L536" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="M536" s="2" t="s">
+      <c r="L536" s="7"/>
+      <c r="M536" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="N536" s="2" t="s">
+      <c r="N536" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="O536" s="2"/>
-      <c r="P536" s="2"/>
-      <c r="Q536" s="2"/>
-      <c r="R536" s="2"/>
-      <c r="S536" s="2"/>
-      <c r="T536" s="2"/>
-      <c r="U536" s="2" t="s">
+      <c r="O536" s="5"/>
+      <c r="P536" s="5"/>
+      <c r="Q536" s="5"/>
+      <c r="R536" s="5"/>
+      <c r="S536" s="5"/>
+      <c r="T536" s="5"/>
+      <c r="U536" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="V536" s="2" t="s">
+      <c r="V536" s="5" t="s">
         <v>551</v>
       </c>
     </row>
@@ -30732,44 +30668,42 @@
       </c>
     </row>
     <row r="545" spans="1:22">
-      <c r="A545" s="2" t="s">
+      <c r="A545" s="5" t="s">
         <v>1226</v>
       </c>
-      <c r="B545" s="2" t="s">
+      <c r="B545" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C545" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D545" s="2"/>
-      <c r="E545" s="2"/>
-      <c r="F545" s="2"/>
-      <c r="G545" s="2"/>
-      <c r="H545" s="2"/>
-      <c r="I545" s="2"/>
-      <c r="J545" s="2" t="s">
+      <c r="C545" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D545" s="5"/>
+      <c r="E545" s="5"/>
+      <c r="F545" s="5"/>
+      <c r="G545" s="5"/>
+      <c r="H545" s="5"/>
+      <c r="I545" s="5"/>
+      <c r="J545" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="K545" s="2"/>
-      <c r="L545" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="M545" s="2" t="s">
+      <c r="K545" s="5"/>
+      <c r="L545" s="7"/>
+      <c r="M545" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="N545" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O545" s="2"/>
-      <c r="P545" s="2"/>
-      <c r="Q545" s="2"/>
-      <c r="R545" s="2"/>
-      <c r="S545" s="2"/>
-      <c r="T545" s="2"/>
-      <c r="U545" s="2" t="s">
+      <c r="N545" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O545" s="5"/>
+      <c r="P545" s="5"/>
+      <c r="Q545" s="5"/>
+      <c r="R545" s="5"/>
+      <c r="S545" s="5"/>
+      <c r="T545" s="5"/>
+      <c r="U545" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="V545" s="2"/>
+      <c r="V545" s="5"/>
     </row>
     <row r="546" spans="1:22">
       <c r="A546" s="2" t="s">
